--- a/Domain Model.xlsx
+++ b/Domain Model.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Jacobs 152</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Last hangout date</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -609,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -625,12 +634,12 @@
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -649,8 +658,11 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,8 +681,11 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -689,8 +704,11 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
@@ -709,8 +727,11 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
@@ -729,13 +750,16 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1">
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -752,7 +776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1</v>
       </c>
@@ -769,7 +793,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2</v>
       </c>
@@ -786,7 +810,7 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3</v>
       </c>
@@ -803,7 +827,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>4</v>
       </c>
